--- a/exampleProblems/REF5/REF5.xlsx
+++ b/exampleProblems/REF5/REF5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://durhamuniversity-my.sharepoint.com/personal/vsmw51_durham_ac_uk/Documents/projects/programming/2022/python/python/rdkit37/projects/simpleNMR/exampleProblems/REF5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{31ACAF3F-3FF5-F242-8345-A9D21E2DAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A638A1AC-A150-2140-B204-3BB9FB4C6F3E}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{31ACAF3F-3FF5-F242-8345-A9D21E2DAB6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F0CFC77-06A1-453C-A227-0B8D504D8A52}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="molecule" sheetId="9" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -667,13 +667,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -706,15 +706,15 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I11" sqref="A1:I11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -770,7 +770,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="11">
         <v>2</v>
       </c>
@@ -799,7 +799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -828,7 +828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -857,7 +857,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -884,7 +884,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="11">
         <v>6</v>
       </c>
@@ -913,7 +913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -942,7 +942,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -971,7 +971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -1038,7 +1038,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -1104,12 +1104,12 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K11" sqref="A1:K11"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:13" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -1142,7 +1142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="17">
+    <row r="2" spans="1:13" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -1172,9 +1172,11 @@
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" ht="17">
+      <c r="M2" s="10">
+        <v>139.05000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1204,9 +1206,11 @@
       </c>
       <c r="J3" s="10"/>
       <c r="K3" s="10"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="17">
+      <c r="M3" s="10">
+        <v>137.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1236,29 +1240,31 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" ht="17">
+      <c r="M4" s="10">
+        <v>134.91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="10">
-        <v>3.4009999999999998</v>
+        <v>2.8130000000000002</v>
       </c>
       <c r="C5" s="10">
-        <v>48.932000000000002</v>
+        <v>57.811999999999998</v>
       </c>
       <c r="D5" s="10">
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="E5" s="10">
-        <v>9.75</v>
+        <v>9.44</v>
       </c>
       <c r="F5" s="10">
-        <v>235.26</v>
+        <v>235.58</v>
       </c>
       <c r="G5" s="10">
-        <v>4.93</v>
+        <v>5.19</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>16</v>
@@ -1268,9 +1274,11 @@
       </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
-      <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" ht="17">
+      <c r="M5" s="10">
+        <v>57.79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1300,28 +1308,31 @@
       </c>
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="17">
+      <c r="M6" s="10">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" s="10">
-        <v>2.8130000000000002</v>
+        <v>3.4009999999999998</v>
       </c>
       <c r="C7" s="10">
-        <v>57.811999999999998</v>
+        <v>48.932000000000002</v>
       </c>
       <c r="D7" s="10">
-        <v>0.15</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E7" s="10">
-        <v>9.44</v>
+        <v>9.75</v>
       </c>
       <c r="F7" s="10">
-        <v>235.58</v>
+        <v>235.26</v>
       </c>
       <c r="G7" s="10">
-        <v>5.19</v>
+        <v>4.93</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>16</v>
@@ -1331,29 +1342,31 @@
       </c>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" ht="17">
+      <c r="M7" s="10">
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="10">
-        <v>1.9259999999999999</v>
+        <v>1.663</v>
       </c>
       <c r="C8" s="10">
-        <v>16.635999999999999</v>
+        <v>46.344000000000001</v>
       </c>
       <c r="D8" s="10">
-        <v>0.27</v>
+        <v>-0.13</v>
       </c>
       <c r="E8" s="10">
-        <v>9.4</v>
+        <v>15.41</v>
       </c>
       <c r="F8" s="10">
-        <v>236.39</v>
+        <v>237.43</v>
       </c>
       <c r="G8" s="10">
-        <v>9.11</v>
+        <v>-7.06</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>16</v>
@@ -1363,29 +1376,31 @@
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" ht="17">
+      <c r="M8" s="10">
+        <v>48.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="10">
-        <v>1.663</v>
+        <v>1.518</v>
       </c>
       <c r="C9" s="10">
         <v>46.344000000000001</v>
       </c>
       <c r="D9" s="10">
-        <v>-0.13</v>
+        <v>-0.08</v>
       </c>
       <c r="E9" s="10">
-        <v>15.41</v>
+        <v>5.57</v>
       </c>
       <c r="F9" s="10">
-        <v>237.43</v>
+        <v>236.58</v>
       </c>
       <c r="G9" s="10">
-        <v>-7.06</v>
+        <v>-1.54</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>16</v>
@@ -1395,29 +1410,31 @@
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="17">
+      <c r="M9" s="10">
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" s="10">
-        <v>1.518</v>
+        <v>1.4450000000000001</v>
       </c>
       <c r="C10" s="10">
-        <v>46.344000000000001</v>
+        <v>26.634</v>
       </c>
       <c r="D10" s="10">
-        <v>-0.08</v>
+        <v>0.67</v>
       </c>
       <c r="E10" s="10">
-        <v>5.57</v>
+        <v>8.41</v>
       </c>
       <c r="F10" s="10">
-        <v>236.58</v>
+        <v>236.75</v>
       </c>
       <c r="G10" s="10">
-        <v>-1.54</v>
+        <v>20.52</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>16</v>
@@ -1427,29 +1444,31 @@
       </c>
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" ht="17">
+      <c r="M10" s="10">
+        <v>26.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B11" s="10">
-        <v>1.4450000000000001</v>
+        <v>1.9259999999999999</v>
       </c>
       <c r="C11" s="10">
-        <v>26.634</v>
+        <v>16.635999999999999</v>
       </c>
       <c r="D11" s="10">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="E11" s="10">
-        <v>8.41</v>
+        <v>9.4</v>
       </c>
       <c r="F11" s="10">
-        <v>236.75</v>
+        <v>236.39</v>
       </c>
       <c r="G11" s="10">
-        <v>20.52</v>
+        <v>9.11</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>16</v>
@@ -1459,9 +1478,11 @@
       </c>
       <c r="J11" s="10"/>
       <c r="K11" s="10"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" ht="17">
+      <c r="M11" s="10">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1473,9 +1494,9 @@
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13" ht="17">
+      <c r="M12" s="10"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="10"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1487,10 +1508,11 @@
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="M13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="16.5">
       <c r="J14" s="1"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13">
       <c r="J15" s="1"/>
@@ -1513,6 +1535,9 @@
       <c r="J20" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K20">
+    <sortCondition descending="1" ref="C1:C20"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1523,41 +1548,41 @@
   <dimension ref="A1:V35"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:22" ht="21">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="2"/>
@@ -1572,364 +1597,346 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
-      <c r="A2" s="10">
+    <row r="2" spans="1:22">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="1">
         <v>6.4820000000000002</v>
       </c>
-      <c r="C2" s="10">
-        <v>1.9319999999999999</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="E2" s="10">
+      <c r="C2" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="1">
         <v>18.21</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="1">
         <v>73.27</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="1">
         <v>112.76</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
       <c r="U2" s="1"/>
       <c r="V2" s="6"/>
     </row>
-    <row r="3" spans="1:22" ht="17">
-      <c r="A3" s="10">
+    <row r="3" spans="1:22">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="1">
         <v>6.077</v>
       </c>
-      <c r="C3" s="10">
-        <v>3.077</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="C3" s="1">
+        <v>3.08</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
         <v>15.57</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="1">
         <v>73.05</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="1">
         <v>16.72</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6"/>
       <c r="U3" s="1"/>
       <c r="V3" s="6"/>
     </row>
-    <row r="4" spans="1:22" ht="17">
-      <c r="A4" s="10">
+    <row r="4" spans="1:22">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="10">
-        <v>6.0730000000000004</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="B4" s="1">
+        <v>6.0731000000000002</v>
+      </c>
+      <c r="C4" s="1">
         <v>5.98</v>
       </c>
-      <c r="D4" s="10">
-        <v>0.98</v>
-      </c>
-      <c r="E4" s="10">
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
         <v>19.170000000000002</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="1">
         <v>84.32</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="1">
         <v>261.8</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="6"/>
       <c r="U4" s="1"/>
       <c r="V4" s="6"/>
     </row>
-    <row r="5" spans="1:22" ht="17">
-      <c r="A5" s="10">
+    <row r="5" spans="1:22">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
-        <v>5.98</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3.4020000000000001</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="1">
+        <v>5.9802999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
         <v>13.33</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="1">
         <v>73.95</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="1">
         <v>12.71</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="6"/>
       <c r="U5" s="1"/>
       <c r="V5" s="6"/>
     </row>
-    <row r="6" spans="1:22" ht="17">
-      <c r="A6" s="10">
+    <row r="6" spans="1:22">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
-        <v>3.403</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2.8130000000000002</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="B6" s="1">
+        <v>3.4026000000000001</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.81</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="E6" s="1">
         <v>19.25</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="1">
         <v>73.23</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="1">
         <v>147.4</v>
       </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="6"/>
       <c r="U6" s="1"/>
       <c r="V6" s="6"/>
     </row>
-    <row r="7" spans="1:22" ht="17">
-      <c r="A7" s="10">
+    <row r="7" spans="1:22">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>3.403</v>
-      </c>
-      <c r="C7" s="10">
-        <v>3.0750000000000002</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="10">
-        <v>20.68</v>
-      </c>
-      <c r="F7" s="10">
-        <v>72.97</v>
-      </c>
-      <c r="G7" s="10">
-        <v>18.940000000000001</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="B7" s="1">
+        <v>3.4026000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20.81</v>
+      </c>
+      <c r="F7" s="1">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6"/>
       <c r="U7" s="1"/>
       <c r="V7" s="6"/>
     </row>
-    <row r="8" spans="1:22" ht="17">
-      <c r="A8" s="10">
+    <row r="8" spans="1:22">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
-        <v>3.403</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1.518</v>
-      </c>
-      <c r="D8" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="B8" s="1">
+        <v>3.4026000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="1">
         <v>20.64</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="1">
         <v>72.489999999999995</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="1">
         <v>16.059999999999999</v>
       </c>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
       <c r="U8" s="1"/>
       <c r="V8" s="6"/>
     </row>
-    <row r="9" spans="1:22" ht="17">
-      <c r="A9" s="10">
+    <row r="9" spans="1:22">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
-        <v>3.403</v>
-      </c>
-      <c r="C9" s="10">
-        <v>1.6659999999999999</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="10">
-        <v>20.81</v>
-      </c>
-      <c r="F9" s="10">
-        <v>78.180000000000007</v>
-      </c>
-      <c r="G9" s="10">
-        <v>12.3</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="B9" s="1">
+        <v>3.0739999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>18.89</v>
+      </c>
+      <c r="F9" s="1">
+        <v>79.31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>20.41</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6"/>
       <c r="U9" s="1"/>
       <c r="V9" s="6"/>
     </row>
-    <row r="10" spans="1:22" ht="17">
-      <c r="A10" s="10">
+    <row r="10" spans="1:22">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="1">
         <v>3.0739999999999998</v>
       </c>
-      <c r="C10" s="10">
-        <v>1.518</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="C10" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="1">
         <v>18.87</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="1">
         <v>74.540000000000006</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="1">
         <v>22.01</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="6"/>
       <c r="U10" s="1"/>
       <c r="V10" s="6"/>
     </row>
-    <row r="11" spans="1:22" ht="17">
-      <c r="A11" s="10">
+    <row r="11" spans="1:22">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="10">
-        <v>3.0739999999999998</v>
-      </c>
-      <c r="C11" s="10">
-        <v>1.663</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.08</v>
-      </c>
-      <c r="E11" s="10">
-        <v>18.89</v>
-      </c>
-      <c r="F11" s="10">
-        <v>79.31</v>
-      </c>
-      <c r="G11" s="10">
-        <v>20.41</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="B11" s="8">
+        <v>1.6627000000000001</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1.52</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22.64</v>
+      </c>
+      <c r="F11" s="8">
+        <v>74.28</v>
+      </c>
+      <c r="G11" s="8">
+        <v>701.18</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
       <c r="U11" s="1"/>
       <c r="V11" s="6"/>
     </row>
-    <row r="12" spans="1:22" ht="17">
-      <c r="A12" s="10">
-        <v>11</v>
-      </c>
-      <c r="B12" s="10">
-        <v>1.663</v>
-      </c>
-      <c r="C12" s="10">
-        <v>1.518</v>
-      </c>
-      <c r="D12" s="10">
-        <v>2.5299999999999998</v>
-      </c>
-      <c r="E12" s="10">
-        <v>22.64</v>
-      </c>
-      <c r="F12" s="10">
-        <v>74.28</v>
-      </c>
-      <c r="G12" s="10">
-        <v>701.18</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>17</v>
-      </c>
+    <row r="12" spans="1:22" ht="16.5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
       <c r="U12" s="1"/>
@@ -2232,41 +2239,41 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="K8" sqref="A1:K8"/>
+      <selection activeCell="M2" sqref="M2:M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="17">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:22" ht="21">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L1" s="2"/>
@@ -2281,419 +2288,692 @@
       <c r="U1" s="3"/>
       <c r="V1" s="4"/>
     </row>
-    <row r="2" spans="1:22" ht="17">
-      <c r="A2" s="10">
+    <row r="2" spans="1:22" ht="16.5">
+      <c r="A2" s="5">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.9251</v>
+      </c>
+      <c r="C2" s="1">
+        <v>203.23</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="F2" s="1">
+        <v>165.86</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="6"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="1:22" ht="16.5">
+      <c r="A3" s="5">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.4435</v>
+      </c>
+      <c r="C3" s="1">
+        <v>203.23</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="F3" s="1">
+        <v>166.34</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="6"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" spans="1:22" ht="16.5">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>6.4744999999999999</v>
+      </c>
+      <c r="C4" s="1">
+        <v>203.12</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F4" s="1">
+        <v>168.16</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="6"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:22">
+      <c r="A5" s="5">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.8115999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>199.28</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F5" s="1">
+        <v>162.27000000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:22">
+      <c r="A6" s="5">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.9251</v>
+      </c>
+      <c r="C6" s="1">
+        <v>151.24</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>167.15</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:22">
+      <c r="A7" s="5">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.9246000000000001</v>
+      </c>
+      <c r="C7" s="1">
+        <v>139.06</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="F7" s="1">
+        <v>165.68</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="A8" s="5">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.6608000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>137.72999999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12.48</v>
+      </c>
+      <c r="F8" s="1">
+        <v>159.13999999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="5">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.6615</v>
+      </c>
+      <c r="C9" s="1">
+        <v>134.94999999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>12.85</v>
+      </c>
+      <c r="F9" s="1">
+        <v>158.26</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="5">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.4431</v>
+      </c>
+      <c r="C10" s="1">
+        <v>57.8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6.71</v>
+      </c>
+      <c r="F10" s="1">
+        <v>158.18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6.4744999999999999</v>
+      </c>
+      <c r="C11" s="1">
+        <v>57.79</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="F11" s="1">
+        <v>166.57</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="A12" s="5">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.5175000000000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>57.78</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4.55</v>
+      </c>
+      <c r="F12" s="1">
+        <v>164.67</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="A13" s="5">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5.9804000000000004</v>
+      </c>
+      <c r="C13" s="1">
+        <v>53.76</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>166.53</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="A14" s="5">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1">
+        <v>6.0704000000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>53.73</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5.09</v>
+      </c>
+      <c r="F14" s="1">
+        <v>165.38</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="A15" s="5">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.4436</v>
+      </c>
+      <c r="C15" s="1">
+        <v>53.73</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="F15" s="1">
+        <v>134.85</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="A16" s="5">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.4436</v>
+      </c>
+      <c r="C16" s="1">
+        <v>52.47</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>6.76</v>
+      </c>
+      <c r="F16" s="1">
+        <v>176.95</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="5">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.5178</v>
+      </c>
+      <c r="C17" s="1">
+        <v>52.44</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.97</v>
+      </c>
+      <c r="F17" s="1">
+        <v>164.47</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="5">
+        <v>8</v>
+      </c>
+      <c r="B18" s="1">
+        <v>3.0743</v>
+      </c>
+      <c r="C18" s="1">
+        <v>48.92</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3.93</v>
+      </c>
+      <c r="F18" s="1">
+        <v>168.37</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="6"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="5">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.0721999999999996</v>
+      </c>
+      <c r="C19" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F19" s="1">
+        <v>161.29</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="5">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5.9820000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>48.9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="F20" s="1">
+        <v>164.27</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="5">
+        <v>10</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.8121</v>
+      </c>
+      <c r="C21" s="1">
+        <v>48.71</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>15.74</v>
+      </c>
+      <c r="F21" s="1">
+        <v>160.33000000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="5">
+        <v>9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.8127</v>
+      </c>
+      <c r="C22" s="1">
+        <v>26.57</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>10.76</v>
+      </c>
+      <c r="F22" s="1">
+        <v>164.73</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="10">
-        <v>1.925</v>
-      </c>
-      <c r="C2" s="10">
-        <v>151.244</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="E2" s="10">
-        <v>7.54</v>
-      </c>
-      <c r="F2" s="10">
-        <v>167.15</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:22" ht="17">
-      <c r="A3" s="10">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
-        <v>1.925</v>
-      </c>
-      <c r="C3" s="10">
-        <v>203.233</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="B23" s="8">
+        <v>6.4752000000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>16.59</v>
+      </c>
+      <c r="D23" s="8">
         <v>0</v>
       </c>
-      <c r="E3" s="10">
-        <v>7.31</v>
-      </c>
-      <c r="F3" s="10">
-        <v>165.86</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:22" ht="17">
-      <c r="A4" s="10">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1.925</v>
-      </c>
-      <c r="C4" s="10">
-        <v>139.06</v>
-      </c>
-      <c r="D4" s="10">
-        <v>0.01</v>
-      </c>
-      <c r="E4" s="10">
-        <v>7.34</v>
-      </c>
-      <c r="F4" s="10">
-        <v>165.68</v>
-      </c>
-      <c r="G4" s="10">
-        <v>0.26</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:22" ht="17">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1.444</v>
-      </c>
-      <c r="C5" s="10">
-        <v>53.731999999999999</v>
-      </c>
-      <c r="D5" s="10">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E5" s="10">
-        <v>6.7</v>
-      </c>
-      <c r="F5" s="10">
-        <v>134.85</v>
-      </c>
-      <c r="G5" s="10">
-        <v>1.55</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:22" ht="17">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="10">
-        <v>1.444</v>
-      </c>
-      <c r="C6" s="10">
-        <v>52.470999999999997</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E6" s="10">
-        <v>6.76</v>
-      </c>
-      <c r="F6" s="10">
-        <v>176.95</v>
-      </c>
-      <c r="G6" s="10">
-        <v>1.74</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:22" ht="17">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1.444</v>
-      </c>
-      <c r="C7" s="10">
-        <v>203.233</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="10">
-        <v>6.73</v>
-      </c>
-      <c r="F7" s="10">
-        <v>166.34</v>
-      </c>
-      <c r="G7" s="10">
-        <v>1.35</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:22" ht="17">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="10">
-        <v>1.4430000000000001</v>
-      </c>
-      <c r="C8" s="10">
-        <v>57.796999999999997</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="10">
-        <v>6.71</v>
-      </c>
-      <c r="F8" s="10">
-        <v>158.18</v>
-      </c>
-      <c r="G8" s="10">
-        <v>1.67</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:22" ht="17">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:22" ht="17">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:22" ht="17">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:22" ht="17">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:22" ht="17">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:22" ht="17">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:22" ht="17">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:22" ht="17">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" ht="17">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" ht="17">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" ht="17">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" ht="17">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" ht="17">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" ht="17">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" ht="17">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" ht="17">
+      <c r="E23" s="8">
+        <v>11.46</v>
+      </c>
+      <c r="F23" s="8">
+        <v>169.14</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="16.5">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2706,7 +2986,7 @@
       <c r="J24" s="10"/>
       <c r="K24" s="10"/>
     </row>
-    <row r="25" spans="1:11" ht="17">
+    <row r="25" spans="1:11" ht="16.5">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2719,7 +2999,7 @@
       <c r="J25" s="10"/>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" ht="17">
+    <row r="26" spans="1:11" ht="16.5">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
@@ -2732,7 +3012,7 @@
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
     </row>
-    <row r="27" spans="1:11" ht="17">
+    <row r="27" spans="1:11" ht="16.5">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
@@ -3032,6 +3312,9 @@
       <c r="K49" s="9"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
+    <sortCondition descending="1" ref="C1:C49"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3043,7 +3326,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3054,12 +3337,12 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:I14"/>
+      <selection activeCell="B5" sqref="B5:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="17">
+    <row r="1" spans="1:9" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>8</v>
@@ -3086,7 +3369,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -3111,7 +3394,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -3136,7 +3419,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -3161,7 +3444,7 @@
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -3186,7 +3469,7 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -3211,7 +3494,7 @@
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -3236,7 +3519,7 @@
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -3261,7 +3544,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="10">
         <v>8</v>
       </c>
@@ -3286,7 +3569,7 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -3311,7 +3594,7 @@
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="10">
         <v>10</v>
       </c>
@@ -3336,7 +3619,7 @@
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="10">
         <v>11</v>
       </c>
@@ -3361,7 +3644,7 @@
       <c r="H12" s="10"/>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -3386,7 +3669,7 @@
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="10">
         <v>13</v>
       </c>
@@ -3411,7 +3694,7 @@
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:9" ht="17">
+    <row r="15" spans="1:9" ht="16.5">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -3422,7 +3705,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="17">
+    <row r="16" spans="1:9" ht="16.5">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -3480,9 +3763,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="24">
+    <row r="1" spans="1:9" ht="21">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>8</v>
@@ -3509,7 +3792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17">
+    <row r="2" spans="1:9" ht="16.5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -3534,7 +3817,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="1:9" ht="17">
+    <row r="3" spans="1:9" ht="16.5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3559,7 +3842,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="6"/>
     </row>
-    <row r="4" spans="1:9" ht="17">
+    <row r="4" spans="1:9" ht="16.5">
       <c r="A4" s="5">
         <f>A3+1</f>
         <v>3</v>
@@ -3585,7 +3868,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" ht="17">
+    <row r="5" spans="1:9" ht="16.5">
       <c r="A5" s="5">
         <f t="shared" ref="A5:A11" si="0">A4+1</f>
         <v>4</v>
@@ -3611,7 +3894,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" ht="17">
+    <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -3637,7 +3920,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" ht="17">
+    <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -3663,7 +3946,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" ht="17">
+    <row r="8" spans="1:9" ht="16.5">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -3689,7 +3972,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" ht="17">
+    <row r="9" spans="1:9" ht="16.5">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -3715,7 +3998,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" ht="17">
+    <row r="10" spans="1:9" ht="16.5">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -3741,7 +4024,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" ht="17">
+    <row r="11" spans="1:9" ht="16.5">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3767,7 +4050,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" ht="17">
+    <row r="12" spans="1:9" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="11"/>
       <c r="C12" s="1"/>
@@ -3778,7 +4061,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" ht="17">
+    <row r="13" spans="1:9" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="11"/>
       <c r="C13" s="1"/>
@@ -3789,7 +4072,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" ht="17">
+    <row r="14" spans="1:9" ht="16.5">
       <c r="A14" s="7"/>
       <c r="B14" s="11"/>
       <c r="C14" s="1"/>
@@ -3809,13 +4092,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D52E6A-54CA-3743-BD7F-F9DC600A175B}">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
         <v>18</v>
@@ -3854,18 +4137,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4086,6 +4369,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44668820-0664-4E62-A660-376AF03334EF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -4098,14 +4389,6 @@
     <ds:schemaRef ds:uri="b60d6f15-5eb1-4c0b-bb71-d899d3bf026f"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9421959D-9476-4FEC-BDFE-1367083D3EBE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
